--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Serpinc1-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Serpinc1-Lrp1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.117659</v>
+        <v>1.141788666666667</v>
       </c>
       <c r="H2">
-        <v>12.352977</v>
+        <v>3.425366</v>
       </c>
       <c r="I2">
-        <v>0.411783455701328</v>
+        <v>0.2235063054668694</v>
       </c>
       <c r="J2">
-        <v>0.4117834557013281</v>
+        <v>0.2235063054668694</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.16653000000001</v>
+        <v>2.027115333333333</v>
       </c>
       <c r="N2">
-        <v>51.49959000000001</v>
+        <v>6.081346</v>
       </c>
       <c r="O2">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418616</v>
       </c>
       <c r="P2">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418615</v>
       </c>
       <c r="Q2">
-        <v>70.68591675327002</v>
+        <v>2.314537313626222</v>
       </c>
       <c r="R2">
-        <v>636.1732507794301</v>
+        <v>20.830835822636</v>
       </c>
       <c r="S2">
-        <v>0.02307409640158158</v>
+        <v>0.001474311193024849</v>
       </c>
       <c r="T2">
-        <v>0.02307409640158158</v>
+        <v>0.001474311193024849</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.117659</v>
+        <v>1.141788666666667</v>
       </c>
       <c r="H3">
-        <v>12.352977</v>
+        <v>3.425366</v>
       </c>
       <c r="I3">
-        <v>0.411783455701328</v>
+        <v>0.2235063054668694</v>
       </c>
       <c r="J3">
-        <v>0.4117834557013281</v>
+        <v>0.2235063054668694</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>769.332916</v>
       </c>
       <c r="O3">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643375</v>
       </c>
       <c r="P3">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643374</v>
       </c>
       <c r="Q3">
-        <v>1055.950201854548</v>
+        <v>292.8052014608062</v>
       </c>
       <c r="R3">
-        <v>9503.551816690931</v>
+        <v>2635.246813147256</v>
       </c>
       <c r="S3">
-        <v>0.3446952076452232</v>
+        <v>0.1865107049033629</v>
       </c>
       <c r="T3">
-        <v>0.3446952076452232</v>
+        <v>0.1865107049033628</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.117659</v>
+        <v>1.141788666666667</v>
       </c>
       <c r="H4">
-        <v>12.352977</v>
+        <v>3.425366</v>
       </c>
       <c r="I4">
-        <v>0.411783455701328</v>
+        <v>0.2235063054668694</v>
       </c>
       <c r="J4">
-        <v>0.4117834557013281</v>
+        <v>0.2235063054668694</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>32.74538866666666</v>
+        <v>48.84026566666667</v>
       </c>
       <c r="N4">
-        <v>98.236166</v>
+        <v>146.520797</v>
       </c>
       <c r="O4">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="P4">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="Q4">
-        <v>134.834344351798</v>
+        <v>55.76526181518911</v>
       </c>
       <c r="R4">
-        <v>1213.509099166182</v>
+        <v>501.8873563367021</v>
       </c>
       <c r="S4">
-        <v>0.04401415165452327</v>
+        <v>0.03552128937048177</v>
       </c>
       <c r="T4">
-        <v>0.04401415165452328</v>
+        <v>0.03552128937048175</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>9.012444</v>
       </c>
       <c r="I5">
-        <v>0.3004276082303642</v>
+        <v>0.5880650598117267</v>
       </c>
       <c r="J5">
-        <v>0.3004276082303643</v>
+        <v>0.5880650598117266</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.16653000000001</v>
+        <v>2.027115333333333</v>
       </c>
       <c r="N5">
-        <v>51.49959000000001</v>
+        <v>6.081346</v>
       </c>
       <c r="O5">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418616</v>
       </c>
       <c r="P5">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418615</v>
       </c>
       <c r="Q5">
-        <v>51.57079676644002</v>
+        <v>6.089754474402667</v>
       </c>
       <c r="R5">
-        <v>464.1371708979601</v>
+        <v>54.807790269624</v>
       </c>
       <c r="S5">
-        <v>0.01683432274421425</v>
+        <v>0.003879044477498068</v>
       </c>
       <c r="T5">
-        <v>0.01683432274421425</v>
+        <v>0.003879044477498067</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>9.012444</v>
       </c>
       <c r="I6">
-        <v>0.3004276082303642</v>
+        <v>0.5880650598117267</v>
       </c>
       <c r="J6">
-        <v>0.3004276082303643</v>
+        <v>0.5880650598117266</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>769.332916</v>
       </c>
       <c r="O6">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643375</v>
       </c>
       <c r="P6">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643374</v>
       </c>
       <c r="Q6">
         <v>770.3966469785227</v>
@@ -818,10 +818,10 @@
         <v>6933.569822806704</v>
       </c>
       <c r="S6">
-        <v>0.2514815866629515</v>
+        <v>0.4907263291987144</v>
       </c>
       <c r="T6">
-        <v>0.2514815866629515</v>
+        <v>0.4907263291987142</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>9.012444</v>
       </c>
       <c r="I7">
-        <v>0.3004276082303642</v>
+        <v>0.5880650598117267</v>
       </c>
       <c r="J7">
-        <v>0.3004276082303643</v>
+        <v>0.5880650598117266</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>32.74538866666666</v>
+        <v>48.84026566666667</v>
       </c>
       <c r="N7">
-        <v>98.236166</v>
+        <v>146.520797</v>
       </c>
       <c r="O7">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="P7">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="Q7">
-        <v>98.37199387218934</v>
+        <v>146.7233864219854</v>
       </c>
       <c r="R7">
-        <v>885.347944849704</v>
+        <v>1320.510477797868</v>
       </c>
       <c r="S7">
-        <v>0.03211169882319852</v>
+        <v>0.09345968613551435</v>
       </c>
       <c r="T7">
-        <v>0.03211169882319852</v>
+        <v>0.09345968613551429</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.877766666666667</v>
+        <v>0.9625933333333334</v>
       </c>
       <c r="H8">
-        <v>8.6333</v>
+        <v>2.88778</v>
       </c>
       <c r="I8">
-        <v>0.2877889360683077</v>
+        <v>0.1884286347214039</v>
       </c>
       <c r="J8">
-        <v>0.2877889360683077</v>
+        <v>0.1884286347214039</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.16653000000001</v>
+        <v>2.027115333333333</v>
       </c>
       <c r="N8">
-        <v>51.49959000000001</v>
+        <v>6.081346</v>
       </c>
       <c r="O8">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418616</v>
       </c>
       <c r="P8">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418615</v>
       </c>
       <c r="Q8">
-        <v>49.40126781633334</v>
+        <v>1.951287705764444</v>
       </c>
       <c r="R8">
-        <v>444.6114103470001</v>
+        <v>17.56158935188</v>
       </c>
       <c r="S8">
-        <v>0.01612612056703208</v>
+        <v>0.001242928894895699</v>
       </c>
       <c r="T8">
-        <v>0.01612612056703209</v>
+        <v>0.001242928894895698</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.877766666666667</v>
+        <v>0.9625933333333334</v>
       </c>
       <c r="H9">
-        <v>8.6333</v>
+        <v>2.88778</v>
       </c>
       <c r="I9">
-        <v>0.2877889360683077</v>
+        <v>0.1884286347214039</v>
       </c>
       <c r="J9">
-        <v>0.2877889360683077</v>
+        <v>0.1884286347214039</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>769.332916</v>
       </c>
       <c r="O9">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643375</v>
       </c>
       <c r="P9">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643374</v>
       </c>
       <c r="Q9">
-        <v>737.9868737447555</v>
+        <v>246.8515786851644</v>
       </c>
       <c r="R9">
-        <v>6641.8818637028</v>
+        <v>2221.66420816648</v>
       </c>
       <c r="S9">
-        <v>0.2409020219307058</v>
+        <v>0.1572392215622603</v>
       </c>
       <c r="T9">
-        <v>0.2409020219307059</v>
+        <v>0.1572392215622603</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.877766666666667</v>
+        <v>0.9625933333333334</v>
       </c>
       <c r="H10">
-        <v>8.6333</v>
+        <v>2.88778</v>
       </c>
       <c r="I10">
-        <v>0.2877889360683077</v>
+        <v>0.1884286347214039</v>
       </c>
       <c r="J10">
-        <v>0.2877889360683077</v>
+        <v>0.1884286347214039</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>32.74538866666666</v>
+        <v>48.84026566666667</v>
       </c>
       <c r="N10">
-        <v>98.236166</v>
+        <v>146.520797</v>
       </c>
       <c r="O10">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="P10">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="Q10">
-        <v>94.23358799197777</v>
+        <v>47.01331412896224</v>
       </c>
       <c r="R10">
-        <v>848.1022919278</v>
+        <v>423.1198271606601</v>
       </c>
       <c r="S10">
-        <v>0.03076079357056973</v>
+        <v>0.02994648426424792</v>
       </c>
       <c r="T10">
-        <v>0.03076079357056974</v>
+        <v>0.02994648426424791</v>
       </c>
     </row>
   </sheetData>
